--- a/cr-qubit/excitations1.xlsx
+++ b/cr-qubit/excitations1.xlsx
@@ -8,13 +8,37 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/nmayhall/code/FermiCG-data/cr-qubit/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{21D855F2-6D56-EE40-82AE-DF4057030C75}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{70CF379E-8306-4044-95F3-19A0C0A65FDD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="5180" yWindow="1800" windowWidth="28040" windowHeight="17440" xr2:uid="{2E8482DF-47E4-DA4B-9F15-26CF863499EB}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlchart.v1.0" hidden="1">Sheet2!$A$10:$D$10</definedName>
+    <definedName name="_xlchart.v1.1" hidden="1">Sheet2!$A$4:$D$4</definedName>
+    <definedName name="_xlchart.v1.10" hidden="1">Sheet2!$A$6:$D$6</definedName>
+    <definedName name="_xlchart.v1.11" hidden="1">Sheet2!$A$7:$D$7</definedName>
+    <definedName name="_xlchart.v1.12" hidden="1">Sheet2!$A$8:$D$8</definedName>
+    <definedName name="_xlchart.v1.13" hidden="1">Sheet2!$A$9:$D$9</definedName>
+    <definedName name="_xlchart.v1.14" hidden="1">Sheet2!$A$10:$D$10</definedName>
+    <definedName name="_xlchart.v1.15" hidden="1">Sheet2!$A$4:$D$4</definedName>
+    <definedName name="_xlchart.v1.16" hidden="1">Sheet2!$A$5:$D$5</definedName>
+    <definedName name="_xlchart.v1.17" hidden="1">Sheet2!$A$6:$D$6</definedName>
+    <definedName name="_xlchart.v1.18" hidden="1">Sheet2!$A$7:$D$7</definedName>
+    <definedName name="_xlchart.v1.19" hidden="1">Sheet2!$A$8:$D$8</definedName>
+    <definedName name="_xlchart.v1.2" hidden="1">Sheet2!$A$5:$D$5</definedName>
+    <definedName name="_xlchart.v1.20" hidden="1">Sheet2!$A$9:$D$9</definedName>
+    <definedName name="_xlchart.v1.3" hidden="1">Sheet2!$A$6:$D$6</definedName>
+    <definedName name="_xlchart.v1.4" hidden="1">Sheet2!$A$7:$D$7</definedName>
+    <definedName name="_xlchart.v1.5" hidden="1">Sheet2!$A$8:$D$8</definedName>
+    <definedName name="_xlchart.v1.6" hidden="1">Sheet2!$A$9:$D$9</definedName>
+    <definedName name="_xlchart.v1.7" hidden="1">Sheet2!$A$10:$D$10</definedName>
+    <definedName name="_xlchart.v1.8" hidden="1">Sheet2!$A$4:$D$4</definedName>
+    <definedName name="_xlchart.v1.9" hidden="1">Sheet2!$A$5:$D$5</definedName>
+  </definedNames>
   <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -35,7 +59,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="11">
   <si>
     <t>Reference</t>
   </si>
@@ -63,11 +87,20 @@
   <si>
     <t>1e-3,</t>
   </si>
+  <si>
+    <t>Dim</t>
+  </si>
+  <si>
+    <t>1e-5,</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="1">
+    <numFmt numFmtId="172" formatCode="0.000"/>
+  </numFmts>
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
@@ -97,8 +130,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="172" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -6179,7 +6213,7 @@
   <dimension ref="B1:O27"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E30" sqref="E30"/>
+      <selection activeCell="B8" sqref="B8:H8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -6974,4 +7008,297 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6AEEC0B0-27EA-9141-9963-6B0DF223EE05}">
+  <dimension ref="A1:H18"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="J8" sqref="J8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C3" t="s">
+        <v>8</v>
+      </c>
+      <c r="D3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>9</v>
+      </c>
+      <c r="B4">
+        <v>6503</v>
+      </c>
+      <c r="C4">
+        <v>7241</v>
+      </c>
+      <c r="D4">
+        <v>121983</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A5">
+        <v>1</v>
+      </c>
+      <c r="B5">
+        <v>-105.93771719</v>
+      </c>
+      <c r="C5">
+        <v>-105.93800987</v>
+      </c>
+      <c r="D5">
+        <v>-105.93879077</v>
+      </c>
+      <c r="F5" s="1">
+        <f>27.21165*(B5-B$5)</f>
+        <v>0</v>
+      </c>
+      <c r="G5" s="1">
+        <f t="shared" ref="G5:H5" si="0">27.21165*(C5-C$5)</f>
+        <v>0</v>
+      </c>
+      <c r="H5" s="1">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A6">
+        <v>2</v>
+      </c>
+      <c r="B6">
+        <v>-105.79496639</v>
+      </c>
+      <c r="C6">
+        <v>-105.86239497</v>
+      </c>
+      <c r="D6">
+        <v>-105.86319198</v>
+      </c>
+      <c r="F6" s="1">
+        <f t="shared" ref="F6:F10" si="1">27.21165*(B6-B$5)</f>
+        <v>3.8844848068200468</v>
+      </c>
+      <c r="G6" s="1">
+        <f t="shared" ref="G6:G10" si="2">27.21165*(C6-C$5)</f>
+        <v>2.0576061935851371</v>
+      </c>
+      <c r="H6" s="1">
+        <f t="shared" ref="H6:H10" si="3">27.21165*(D6-D$5)</f>
+        <v>2.0571678139035217</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A7">
+        <v>3</v>
+      </c>
+      <c r="B7">
+        <v>-105.73574567999999</v>
+      </c>
+      <c r="C7">
+        <v>-105.86142122</v>
+      </c>
+      <c r="D7">
+        <v>-105.86227826</v>
+      </c>
+      <c r="F7" s="1">
+        <f t="shared" si="1"/>
+        <v>5.4959780400916909</v>
+      </c>
+      <c r="G7" s="1">
+        <f t="shared" si="2"/>
+        <v>2.0841035377726369</v>
+      </c>
+      <c r="H7" s="1">
+        <f t="shared" si="3"/>
+        <v>2.0820316427415158</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A8">
+        <v>4</v>
+      </c>
+      <c r="B8">
+        <v>-105.73325955999999</v>
+      </c>
+      <c r="C8">
+        <v>-105.79956479000001</v>
+      </c>
+      <c r="D8">
+        <v>-105.80087589</v>
+      </c>
+      <c r="F8" s="1">
+        <f t="shared" si="1"/>
+        <v>5.5636294673897009</v>
+      </c>
+      <c r="G8" s="1">
+        <f t="shared" si="2"/>
+        <v>3.7673190611819121</v>
+      </c>
+      <c r="H8" s="1">
+        <f t="shared" si="3"/>
+        <v>3.7528914443519112</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A9">
+        <v>5</v>
+      </c>
+      <c r="B9">
+        <v>-105.73221949000001</v>
+      </c>
+      <c r="C9">
+        <v>-105.79866604999999</v>
+      </c>
+      <c r="D9">
+        <v>-105.80069979</v>
+      </c>
+      <c r="F9" s="1">
+        <f t="shared" si="1"/>
+        <v>5.5919314882048674</v>
+      </c>
+      <c r="G9" s="1">
+        <f t="shared" si="2"/>
+        <v>3.7917752595032086</v>
+      </c>
+      <c r="H9" s="1">
+        <f t="shared" si="3"/>
+        <v>3.7576834159170325</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A10">
+        <v>6</v>
+      </c>
+      <c r="B10">
+        <v>-105.72585058999999</v>
+      </c>
+      <c r="C10">
+        <v>-105.78302177</v>
+      </c>
+      <c r="D10">
+        <v>-105.78925941</v>
+      </c>
+      <c r="F10" s="1">
+        <f t="shared" si="1"/>
+        <v>5.7652397658902057</v>
+      </c>
+      <c r="G10" s="1">
+        <f t="shared" si="2"/>
+        <v>4.2174819313649206</v>
+      </c>
+      <c r="H10" s="1">
+        <f t="shared" si="3"/>
+        <v>4.0689950323439303</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="B13">
+        <v>2.00054775</v>
+      </c>
+      <c r="C13">
+        <v>2.0017814199999999</v>
+      </c>
+      <c r="D13">
+        <v>2.0012495800000001</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="B14">
+        <v>5.9796757400000002</v>
+      </c>
+      <c r="C14">
+        <v>8.0298000000000001E-4</v>
+      </c>
+      <c r="D14">
+        <v>7.6365000000000005E-4</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="B15">
+        <v>2.0097983199999998</v>
+      </c>
+      <c r="C15">
+        <v>1.0941099999999999E-3</v>
+      </c>
+      <c r="D15">
+        <v>1.17975E-3</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="B16">
+        <v>2.0037477699999999</v>
+      </c>
+      <c r="C16">
+        <v>1.450939E-2</v>
+      </c>
+      <c r="D16">
+        <v>4.9498054900000001</v>
+      </c>
+    </row>
+    <row r="17" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B17">
+        <v>5.8646703100000002</v>
+      </c>
+      <c r="C17">
+        <v>5.90389681</v>
+      </c>
+      <c r="D17">
+        <v>0.88481275999999998</v>
+      </c>
+    </row>
+    <row r="18" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B18">
+        <v>2.01004746</v>
+      </c>
+      <c r="C18">
+        <v>2.0159196399999999</v>
+      </c>
+      <c r="D18">
+        <v>2.25444194</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>